--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech545_Fall2023/testfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F283CED0-1CA2-4959-95F5-034E429376AB}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907EC92E-6BDA-4D08-A3AC-0F3A6EDB9D27}"/>
   <bookViews>
-    <workbookView xWindow="-36840" yWindow="690" windowWidth="19815" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24495" yWindow="1650" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Test</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>VaR/ES on 2 levels from simulated values</t>
+  </si>
+  <si>
+    <t>test7_1.csv</t>
+  </si>
+  <si>
+    <t>test7_2.csv</t>
+  </si>
+  <si>
+    <t>test7_3.csv</t>
   </si>
 </sst>
 </file>
@@ -490,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +815,9 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>testout_7.1.csv</v>
@@ -818,6 +830,9 @@
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>testout_7.2.csv</v>
@@ -829,6 +844,9 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>

--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech545_Fall2023/testfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907EC92E-6BDA-4D08-A3AC-0F3A6EDB9D27}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67110BD-B845-4D63-BBDC-92D93476919A}"/>
   <bookViews>
-    <workbookView xWindow="-24495" yWindow="1650" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25560" yWindow="1560" windowWidth="21735" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Test</t>
   </si>
@@ -149,18 +149,12 @@
     <t>Var from T Distribution</t>
   </si>
   <si>
-    <t>VaR from Simulation</t>
-  </si>
-  <si>
     <t>ES From Normal Distribution</t>
   </si>
   <si>
     <t>ES from T Distribution</t>
   </si>
   <si>
-    <t>ES from Simulation</t>
-  </si>
-  <si>
     <t>Gaussian Copula with a  Normal and T distribution</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>test7_3.csv</t>
+  </si>
+  <si>
+    <t>VaR from Simulation -- compare to 8.2 values</t>
+  </si>
+  <si>
+    <t>ES from Simulation -- compare to 8.5 values</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -831,7 +831,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -860,6 +860,9 @@
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.1.csv</v>
@@ -872,6 +875,9 @@
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.2.csv</v>
@@ -882,7 +888,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -894,7 +903,10 @@
         <v>8.4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -906,7 +918,10 @@
         <v>8.5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -918,7 +933,10 @@
         <v>8.6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -930,7 +948,7 @@
         <v>9.1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -942,7 +960,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -954,7 +972,7 @@
         <v>10.1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>

--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech545_Fall2023/testfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67110BD-B845-4D63-BBDC-92D93476919A}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FC16AB-1682-4235-BE05-82D5CA2CFDEB}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="1560" windowWidth="21735" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22860" yWindow="885" windowWidth="21735" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Test</t>
   </si>
@@ -155,15 +155,6 @@
     <t>ES from T Distribution</t>
   </si>
   <si>
-    <t>Gaussian Copula with a  Normal and T distribution</t>
-  </si>
-  <si>
-    <t>Gaussian Copula with a  2 T distributions</t>
-  </si>
-  <si>
-    <t>VaR/ES on 2 levels from simulated values</t>
-  </si>
-  <si>
     <t>test7_1.csv</t>
   </si>
   <si>
@@ -177,6 +168,12 @@
   </si>
   <si>
     <t>ES from Simulation -- compare to 8.5 values</t>
+  </si>
+  <si>
+    <t>test9_1_portfolio.csv, test9_1_returns.csv</t>
+  </si>
+  <si>
+    <t>VaR/ES on 2 levels from simulated values - Copula</t>
   </si>
 </sst>
 </file>
@@ -497,16 +494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,7 +814,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -831,7 +829,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -846,7 +844,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -861,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -876,7 +874,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -888,10 +886,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -906,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -921,7 +919,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -933,50 +931,29 @@
         <v>8.6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.6.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9.1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>testout_9.1.csv</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_9.2.csv</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>10.1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_10.1.csv</v>
       </c>
     </row>
   </sheetData>

--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech545_Fall2023/testfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesli\Documents\Duke\Masters\FinTech545\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F283CED0-1CA2-4959-95F5-034E429376AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B799FAD-5421-4048-AB8C-2FA511EC610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36840" yWindow="690" windowWidth="19815" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,16 +491,16 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -529,7 +529,7 @@
         <v>testout_1.1.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -544,7 +544,7 @@
         <v>testout_1.2.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>testout_1.3.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>testout_1.4.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>testout_2.1.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -604,7 +604,7 @@
         <v>testout_2.2.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -619,7 +619,7 @@
         <v>testout_2.3.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -634,7 +634,7 @@
         <v>testout_3.1.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>testout_3.2.csv</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>testout_3.3.csv</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.4</v>
       </c>
@@ -679,7 +679,7 @@
         <v>testout_3.4.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.0999999999999996</v>
       </c>
@@ -694,7 +694,7 @@
         <v>testout_4.1.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
@@ -709,7 +709,7 @@
         <v>testout_5.1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.2</v>
       </c>
@@ -724,7 +724,7 @@
         <v>testout_5.2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.3</v>
       </c>
@@ -739,7 +739,7 @@
         <v>testout_5.3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>testout_5.4.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.5</v>
       </c>
@@ -769,7 +769,7 @@
         <v>testout_5.5.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6.1</v>
       </c>
@@ -784,7 +784,7 @@
         <v>testout_6.1.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6.2</v>
       </c>
@@ -799,7 +799,7 @@
         <v>testout_6.2.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7.1</v>
       </c>
@@ -811,7 +811,7 @@
         <v>testout_7.1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7.2</v>
       </c>
@@ -823,7 +823,7 @@
         <v>testout_7.2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7.3</v>
       </c>
@@ -835,7 +835,7 @@
         <v>testout_7.3.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8.1</v>
       </c>
@@ -847,7 +847,7 @@
         <v>testout_8.1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8.1999999999999993</v>
       </c>
@@ -859,7 +859,7 @@
         <v>testout_8.2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8.3000000000000007</v>
       </c>
@@ -871,7 +871,7 @@
         <v>testout_8.3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.4</v>
       </c>
@@ -883,7 +883,7 @@
         <v>testout_8.4.csv</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.5</v>
       </c>
@@ -895,7 +895,7 @@
         <v>testout_8.5.csv</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.6</v>
       </c>
@@ -907,7 +907,7 @@
         <v>testout_8.6.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.1</v>
       </c>
@@ -919,7 +919,7 @@
         <v>testout_9.1.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9.1999999999999993</v>
       </c>
@@ -931,7 +931,7 @@
         <v>testout_9.2.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10.1</v>
       </c>
